--- a/data/trans_dic/P32E$casa_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Edad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1042,7 +1042,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$casa_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.224247470309773</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3594225171534572</v>
+        <v>0.3594225171534571</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1708996891345704</v>
+        <v>0.1819111438883715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05407198473640228</v>
+        <v>0.04783266898053342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1792381269933262</v>
+        <v>0.1942660917247011</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.67939070352824</v>
+        <v>0.7003706188929026</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5362494509983954</v>
+        <v>0.5532125211905898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5655831193725864</v>
+        <v>0.5740538331887454</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08910393428555166</v>
+        <v>0.1073144549660985</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05717044133102858</v>
+        <v>0.05926094744289521</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1304403900981448</v>
+        <v>0.1297052279641638</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5466405603597534</v>
+        <v>0.559866479025337</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6009726070424252</v>
+        <v>0.5828357655301921</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4615478576353307</v>
+        <v>0.4782225206848056</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3979774305514539</v>
+        <v>0.3873972249705868</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2146070575941635</v>
+        <v>0.216266243537797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4030098568752074</v>
+        <v>0.4136563564165794</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7683763983935268</v>
+        <v>0.7635800255583139</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8642776730817205</v>
+        <v>0.8652951165039718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7440504507916886</v>
+        <v>0.7388321753321492</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.5688937264917205</v>
+        <v>0.5688937264917204</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2404743397156422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4833144195684745</v>
+        <v>0.4833144195684743</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3964530682765416</v>
+        <v>0.3835541714717153</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0647202720735218</v>
+        <v>0.06656094980267506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3464383106874544</v>
+        <v>0.3341890842045789</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7535037460765428</v>
+        <v>0.7406451236574538</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4991190931490376</v>
+        <v>0.4941828473732489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6294093227508605</v>
+        <v>0.6257223748344111</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7132355491989948</v>
+        <v>0.7132355491989947</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6245856538946865</v>
+        <v>0.6245856538946863</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6933714267037399</v>
+        <v>0.6933714267037397</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5270595002332368</v>
+        <v>0.5003950570221297</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3138400594121457</v>
+        <v>0.3160140815960537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5175474008264659</v>
+        <v>0.5387666159473478</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8615602580857524</v>
+        <v>0.8607737664392865</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8958152492239455</v>
+        <v>0.9101552103551174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8180302878542146</v>
+        <v>0.8218217822842275</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.739927161397741</v>
+        <v>0.7399271613977407</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.5495960542495247</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6999519958231828</v>
+        <v>0.6999519958231826</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5306939995630504</v>
+        <v>0.4997631612229215</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1543073785723539</v>
+        <v>0.1653685493508303</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4969943719673331</v>
+        <v>0.4896808062735149</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.906391474456903</v>
+        <v>0.9062264829045904</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8841663858026535</v>
+        <v>0.8852695456932278</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8629870766535005</v>
+        <v>0.8449567091377677</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.6777406736747864</v>
+        <v>0.6777406736747865</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.742276381193159</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2364355857386854</v>
+        <v>0.2004969183253801</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3198636812143416</v>
+        <v>0.2854383780217239</v>
       </c>
     </row>
     <row r="24">
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9315846684555299</v>
+        <v>0.9316805921714241</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4470075032857427</v>
+        <v>0.4527812067133346</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2440492390393927</v>
+        <v>0.2413209555629142</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4073340262968337</v>
+        <v>0.4114413595449786</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6263623911309903</v>
+        <v>0.6277109865245951</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4839652534311091</v>
+        <v>0.4782211875867206</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5575964036351473</v>
+        <v>0.5596571358005443</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5050</v>
+        <v>5376</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>971</v>
+        <v>859</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8516</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20077</v>
+        <v>20697</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9632</v>
+        <v>9936</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26873</v>
+        <v>27275</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2488</v>
+        <v>2997</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>913</v>
+        <v>947</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5726</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15264</v>
+        <v>15634</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9599</v>
+        <v>9309</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20260</v>
+        <v>20992</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11814</v>
+        <v>11499</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14619</v>
+        <v>15005</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22808</v>
+        <v>22666</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5695</v>
+        <v>5701</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26990</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12079</v>
+        <v>11686</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14275</v>
+        <v>13770</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22958</v>
+        <v>22566</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5359</v>
+        <v>5306</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25935</v>
+        <v>25783</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12249</v>
+        <v>11629</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2106</v>
+        <v>2121</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>15501</v>
+        <v>16137</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20023</v>
+        <v>20004</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6012</v>
+        <v>6108</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24501</v>
+        <v>24614</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7680</v>
+        <v>7232</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9104</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13116</v>
+        <v>13114</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3402</v>
+        <v>3407</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15809</v>
+        <v>15479</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1452</v>
+        <v>1232</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2722</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="31">
@@ -1589,7 +1589,7 @@
         <v>2368</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7928</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>72184</v>
+        <v>73116</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>15665</v>
+        <v>15489</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>91922</v>
+        <v>92849</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>101146</v>
+        <v>101364</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>31064</v>
+        <v>30695</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>125832</v>
+        <v>126297</v>
       </c>
     </row>
     <row r="36">
